--- a/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.06434690995550907</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06889197914672271</v>
+        <v>0.06889197914672274</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01898656921855747</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009766525580500918</v>
+        <v>0.01000582194045688</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03407090094128466</v>
+        <v>0.03363528213673925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02599230094315</v>
+        <v>0.02621616290038638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04417558364194017</v>
+        <v>0.04475044921100321</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01049918452146999</v>
+        <v>0.01088891061523641</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08756448970328781</v>
+        <v>0.0878901734284773</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04581336494371289</v>
+        <v>0.04755993332157697</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05635598822777071</v>
+        <v>0.0558208932320364</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01261292028926492</v>
+        <v>0.01273280451080431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06451060106332437</v>
+        <v>0.06402222746916275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04156490519962533</v>
+        <v>0.04039166440265345</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05490552042861083</v>
+        <v>0.05448915286334553</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02967061968603088</v>
+        <v>0.02982320605436661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06866441108417336</v>
+        <v>0.06693385570036606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05680297836172178</v>
+        <v>0.05634665455329333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08190820087425355</v>
+        <v>0.08036919455035643</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03176044281981675</v>
+        <v>0.03327876939611941</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1346961158603027</v>
+        <v>0.134984060989513</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08623282875765186</v>
+        <v>0.08653356131294203</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08326059474704893</v>
+        <v>0.08358392655275575</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02716857120707427</v>
+        <v>0.02713174375394766</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09502418597049762</v>
+        <v>0.09403149114770018</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06524601996418067</v>
+        <v>0.06627442461617188</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07849824381864119</v>
+        <v>0.07770440191229983</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0286205328426565</v>
+        <v>0.0287553357335074</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03645519561635971</v>
+        <v>0.03538550605375749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01815233624385082</v>
+        <v>0.01782078096210719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02695588505828895</v>
+        <v>0.02757881593065697</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03093111249110341</v>
+        <v>0.03032259610995275</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06287314040221977</v>
+        <v>0.06423544818462749</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03122789387022165</v>
+        <v>0.03281748455336587</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06076879801677472</v>
+        <v>0.05956679118048987</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03342610203895036</v>
+        <v>0.03287426604246069</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05431055853481163</v>
+        <v>0.05417970381750903</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02779851572785865</v>
+        <v>0.0273291953265487</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04606838243354794</v>
+        <v>0.04614132384490088</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05476341971084644</v>
+        <v>0.05456111444679636</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06412281952120688</v>
+        <v>0.06339410049911139</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0392103475562017</v>
+        <v>0.03838121230863488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04889803723761311</v>
+        <v>0.05023237494026155</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05840713092171799</v>
+        <v>0.05816424977662817</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0986219779746908</v>
+        <v>0.09745322756536216</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0581261610677173</v>
+        <v>0.06114957058071802</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08496453482241023</v>
+        <v>0.0858188390287646</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05282196478006351</v>
+        <v>0.05142912972812567</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07750903290065866</v>
+        <v>0.07617443998917242</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04440650249997247</v>
+        <v>0.04418670370522825</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06337971639270389</v>
+        <v>0.06355340565736231</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03620514913223723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05866195573198247</v>
+        <v>0.05866195573198248</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05416364548098433</v>
@@ -957,7 +957,7 @@
         <v>0.05089774724900288</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06842753485677978</v>
+        <v>0.06842753485677981</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04380858460259994</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02145621059878206</v>
+        <v>0.02116063548578616</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02729234339339856</v>
+        <v>0.02616539508658249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02336560898322215</v>
+        <v>0.02458151515924664</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04380025135854612</v>
+        <v>0.04213160959471808</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03905529187474192</v>
+        <v>0.03848744078226816</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06688881516118049</v>
+        <v>0.06684066022983105</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03592081694117936</v>
+        <v>0.03614883264037237</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05465464244291646</v>
+        <v>0.05540467500131062</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03306544761836667</v>
+        <v>0.03404627366873249</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05111473535576406</v>
+        <v>0.05166597763019813</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0332667785167504</v>
+        <v>0.0337498962594112</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05253328815073544</v>
+        <v>0.05221230954585195</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04986836300135409</v>
+        <v>0.05191819790664722</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.059947601144285</v>
+        <v>0.05519080734263938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05261203706836885</v>
+        <v>0.05426058086847443</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08034517084840698</v>
+        <v>0.08050504342015331</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07176246269882774</v>
+        <v>0.07303962867597416</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1105910184516469</v>
+        <v>0.1097285146112609</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06818307909848068</v>
+        <v>0.06802916307287085</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08492033954016896</v>
+        <v>0.08629861184230915</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05599874217099526</v>
+        <v>0.05683608119915781</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07665822093883147</v>
+        <v>0.07700666164416696</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05666491636932601</v>
+        <v>0.05487182630455243</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07557922767749617</v>
+        <v>0.07653568317028035</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.0389404455090105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05742749877239036</v>
+        <v>0.05742749877239035</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06848741258165283</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02183498810761767</v>
+        <v>0.02108934861408341</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03426368284820162</v>
+        <v>0.03496009876923368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02759212832177071</v>
+        <v>0.02635445002539708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04537207853124817</v>
+        <v>0.0429174778005749</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0546738278237536</v>
+        <v>0.05416897788245553</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08181766105388953</v>
+        <v>0.08320145945337823</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04796767447278866</v>
+        <v>0.04838309815751995</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07238122662169046</v>
+        <v>0.07117884830819236</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04252449093068331</v>
+        <v>0.04224213971410051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06265489507279155</v>
+        <v>0.06469823039279728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0414834808535875</v>
+        <v>0.04162684419033796</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06396500725386464</v>
+        <v>0.06338958293676779</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.045902508876</v>
+        <v>0.04474800595563837</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06416533323019395</v>
+        <v>0.06422326162071706</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0531127705238927</v>
+        <v>0.05312722777127529</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07412348623012976</v>
+        <v>0.0720570184025783</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08622995310776851</v>
+        <v>0.08477802267517653</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1212375469674689</v>
+        <v>0.1199586600095749</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08113968011629641</v>
+        <v>0.08183002798641499</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1001577241386528</v>
+        <v>0.101049680071789</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06181020593337947</v>
+        <v>0.06181188273437686</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08702123740917571</v>
+        <v>0.08695021970493295</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06310314774500214</v>
+        <v>0.06227894463563443</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08323366595467996</v>
+        <v>0.08235478972223553</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03465013591691826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05226604053810154</v>
+        <v>0.05226604053810156</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04850047052032394</v>
@@ -1229,7 +1229,7 @@
         <v>0.0552846470732063</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07456401324854876</v>
+        <v>0.07456401324854875</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04031159862993554</v>
@@ -1241,7 +1241,7 @@
         <v>0.04518485086007707</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06372411909316227</v>
+        <v>0.06372411909316228</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02619086527189032</v>
+        <v>0.02573628406722594</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03936657586934775</v>
+        <v>0.03920802502659371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02879824372799816</v>
+        <v>0.02835955402018472</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04461243528177447</v>
+        <v>0.04467593241360743</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04195459116959203</v>
+        <v>0.0424346079365164</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08385643015087663</v>
+        <v>0.08363102939344508</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04726268506121068</v>
+        <v>0.04755147765662992</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06835394631472304</v>
+        <v>0.06807368604966044</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03553359574388249</v>
+        <v>0.03519206647901196</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06423428006184508</v>
+        <v>0.06404127612497502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04007295547795537</v>
+        <v>0.04023335958409779</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05864573854842128</v>
+        <v>0.05872153202197104</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0383658583692621</v>
+        <v>0.03878117757131101</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05464296265538473</v>
+        <v>0.05415908791128235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04105710951129424</v>
+        <v>0.04077339871287977</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0599363896528598</v>
+        <v>0.05946872845355478</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05698838388880054</v>
+        <v>0.05752694927323557</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1042838633596499</v>
+        <v>0.1038134439550011</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06419627403786637</v>
+        <v>0.06432513619196539</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0816093578715457</v>
+        <v>0.08166893341517864</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04551139818993366</v>
+        <v>0.0456959943105485</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07751756224071726</v>
+        <v>0.07694262922515806</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05002183748581523</v>
+        <v>0.05040070714477934</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06918739231743393</v>
+        <v>0.0689718720151057</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6778</v>
+        <v>6944</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23935</v>
+        <v>23629</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17540</v>
+        <v>17691</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30421</v>
+        <v>30817</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7227</v>
+        <v>7495</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>60955</v>
+        <v>61182</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>30738</v>
+        <v>31910</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>41144</v>
+        <v>40754</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17436</v>
+        <v>17601</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>90226</v>
+        <v>89543</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>55936</v>
+        <v>54357</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>77895</v>
+        <v>77305</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20592</v>
+        <v>20698</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>48237</v>
+        <v>47021</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38331</v>
+        <v>38023</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56405</v>
+        <v>55345</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21862</v>
+        <v>22907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>93764</v>
+        <v>93964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>57857</v>
+        <v>58059</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>60787</v>
+        <v>61023</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37557</v>
+        <v>37506</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>132903</v>
+        <v>131514</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>87804</v>
+        <v>89188</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>111367</v>
+        <v>110241</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27527</v>
+        <v>27657</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>37109</v>
+        <v>36021</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18542</v>
+        <v>18203</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28274</v>
+        <v>28928</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>29953</v>
+        <v>29364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>64833</v>
+        <v>66237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>32537</v>
+        <v>34194</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>64989</v>
+        <v>63703</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>64519</v>
+        <v>63454</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>111288</v>
+        <v>111020</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>57359</v>
+        <v>56391</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>97590</v>
+        <v>97744</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>52671</v>
+        <v>52477</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>65274</v>
+        <v>64532</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40052</v>
+        <v>39205</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>51290</v>
+        <v>52690</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>56561</v>
+        <v>56326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>101696</v>
+        <v>100490</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>60564</v>
+        <v>63714</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>90865</v>
+        <v>91779</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>101957</v>
+        <v>99268</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>158825</v>
+        <v>156090</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>91628</v>
+        <v>91174</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>134261</v>
+        <v>134629</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14558</v>
+        <v>14358</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20651</v>
+        <v>19799</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17747</v>
+        <v>18671</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35175</v>
+        <v>33835</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>26708</v>
+        <v>26319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>51911</v>
+        <v>51873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28153</v>
+        <v>28331</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>44368</v>
+        <v>44977</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>45047</v>
+        <v>46383</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>78346</v>
+        <v>79191</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>51340</v>
+        <v>52086</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>84834</v>
+        <v>84315</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33836</v>
+        <v>35227</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45361</v>
+        <v>41762</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39962</v>
+        <v>41214</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>64523</v>
+        <v>64651</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>49074</v>
+        <v>49947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>85827</v>
+        <v>85158</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53438</v>
+        <v>53317</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>68937</v>
+        <v>70056</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>76290</v>
+        <v>77431</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>117498</v>
+        <v>118032</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>87451</v>
+        <v>84683</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>122049</v>
+        <v>123594</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20573</v>
+        <v>19871</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32438</v>
+        <v>33097</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25869</v>
+        <v>24709</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>44849</v>
+        <v>42422</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>56785</v>
+        <v>56261</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>86064</v>
+        <v>87520</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>50025</v>
+        <v>50458</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80998</v>
+        <v>79652</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>84234</v>
+        <v>83675</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>125223</v>
+        <v>129307</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>82156</v>
+        <v>82440</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>134806</v>
+        <v>133594</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>43250</v>
+        <v>42163</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>60746</v>
+        <v>60801</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49797</v>
+        <v>49810</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73268</v>
+        <v>71226</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>89559</v>
+        <v>88051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>127530</v>
+        <v>126185</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>84620</v>
+        <v>85340</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>112081</v>
+        <v>113079</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>122436</v>
+        <v>122439</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>173922</v>
+        <v>173780</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>124973</v>
+        <v>123341</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>175415</v>
+        <v>173563</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>85815</v>
+        <v>84326</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>134785</v>
+        <v>134242</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>97723</v>
+        <v>96235</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>157441</v>
+        <v>157665</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>141773</v>
+        <v>143395</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>298131</v>
+        <v>297330</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>167286</v>
+        <v>168309</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>254984</v>
+        <v>253939</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>236502</v>
+        <v>234229</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>448297</v>
+        <v>446950</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>277821</v>
+        <v>278933</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>425735</v>
+        <v>426285</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>125707</v>
+        <v>127068</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>187089</v>
+        <v>185432</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>139322</v>
+        <v>138360</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>211521</v>
+        <v>209870</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>192575</v>
+        <v>194395</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>370756</v>
+        <v>369083</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>227223</v>
+        <v>227679</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>304431</v>
+        <v>304654</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>302912</v>
+        <v>304141</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>541002</v>
+        <v>536990</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>346795</v>
+        <v>349422</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>502262</v>
+        <v>500697</v>
       </c>
     </row>
     <row r="24">
